--- a/OR1_1242/2021.02.06 (ignore all other files; this is the final file)OR1_1242-FINAL DATA.xlsx
+++ b/OR1_1242/2021.02.06 (ignore all other files; this is the final file)OR1_1242-FINAL DATA.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20376"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20377"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tumha\Desktop\Lab Work\Data\Sorting data\OR1_1242\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tumha\Desktop\Lab Work\Sorting data\sorting_data_curate\OR1_1242\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3DDFBDD-417A-45C8-AB80-FDDE5F0A1BBF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D97C982F-3FCD-4A09-B4A7-19AC9210F18E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4134,6 +4134,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:Q468"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -4203,7 +4204,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:17" hidden="1">
       <c r="A2" s="35" t="s">
         <v>258</v>
       </c>
@@ -4232,7 +4233,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="3" spans="1:17">
+    <row r="3" spans="1:17" hidden="1">
       <c r="A3" s="35" t="s">
         <v>258</v>
       </c>
@@ -4261,7 +4262,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:17">
+    <row r="4" spans="1:17" hidden="1">
       <c r="A4" s="35" t="s">
         <v>258</v>
       </c>
@@ -4290,7 +4291,7 @@
         <v>2.15</v>
       </c>
     </row>
-    <row r="5" spans="1:17">
+    <row r="5" spans="1:17" hidden="1">
       <c r="A5" s="35" t="s">
         <v>258</v>
       </c>
@@ -4319,7 +4320,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="6" spans="1:17">
+    <row r="6" spans="1:17" hidden="1">
       <c r="A6" s="35" t="s">
         <v>259</v>
       </c>
@@ -4348,7 +4349,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="7" spans="1:17">
+    <row r="7" spans="1:17" hidden="1">
       <c r="A7" s="35" t="s">
         <v>259</v>
       </c>
@@ -4377,7 +4378,7 @@
         <v>0.60000000000000009</v>
       </c>
     </row>
-    <row r="8" spans="1:17">
+    <row r="8" spans="1:17" hidden="1">
       <c r="A8" s="35" t="s">
         <v>259</v>
       </c>
@@ -4406,7 +4407,7 @@
         <v>1.1500000000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:17">
+    <row r="9" spans="1:17" hidden="1">
       <c r="A9" s="35" t="s">
         <v>259</v>
       </c>
@@ -4435,7 +4436,7 @@
         <v>2.4000000000000004</v>
       </c>
     </row>
-    <row r="10" spans="1:17">
+    <row r="10" spans="1:17" hidden="1">
       <c r="A10" s="35" t="s">
         <v>259</v>
       </c>
@@ -4464,7 +4465,7 @@
         <v>0.60000000000000009</v>
       </c>
     </row>
-    <row r="11" spans="1:17">
+    <row r="11" spans="1:17" hidden="1">
       <c r="A11" s="35" t="s">
         <v>259</v>
       </c>
@@ -4493,7 +4494,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="12" spans="1:17">
+    <row r="12" spans="1:17" hidden="1">
       <c r="A12" s="35" t="s">
         <v>258</v>
       </c>
@@ -4522,7 +4523,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:17">
+    <row r="13" spans="1:17" hidden="1">
       <c r="A13" s="35" t="s">
         <v>258</v>
       </c>
@@ -4551,7 +4552,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:17">
+    <row r="14" spans="1:17" hidden="1">
       <c r="A14" s="35" t="s">
         <v>258</v>
       </c>
@@ -4580,7 +4581,7 @@
         <v>1.7000000000000002</v>
       </c>
     </row>
-    <row r="15" spans="1:17">
+    <row r="15" spans="1:17" hidden="1">
       <c r="A15" s="35" t="s">
         <v>258</v>
       </c>
@@ -4609,7 +4610,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="16" spans="1:17">
+    <row r="16" spans="1:17" hidden="1">
       <c r="A16" s="35" t="s">
         <v>258</v>
       </c>
@@ -4638,7 +4639,7 @@
         <v>1.4000000000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:13" hidden="1">
       <c r="A17" s="35" t="s">
         <v>258</v>
       </c>
@@ -4667,7 +4668,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:13" hidden="1">
       <c r="A18" s="35" t="s">
         <v>258</v>
       </c>
@@ -4696,7 +4697,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:13" hidden="1">
       <c r="A19" s="35" t="s">
         <v>258</v>
       </c>
@@ -4725,7 +4726,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:13" hidden="1">
       <c r="A20" s="35" t="s">
         <v>258</v>
       </c>
@@ -4754,7 +4755,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" spans="1:13" hidden="1">
       <c r="A21" s="35" t="s">
         <v>258</v>
       </c>
@@ -4783,7 +4784,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="22" spans="1:13">
+    <row r="22" spans="1:13" hidden="1">
       <c r="A22" s="35" t="s">
         <v>258</v>
       </c>
@@ -4812,7 +4813,7 @@
         <v>1.4000000000000001</v>
       </c>
     </row>
-    <row r="23" spans="1:13">
+    <row r="23" spans="1:13" hidden="1">
       <c r="A23" s="35" t="s">
         <v>258</v>
       </c>
@@ -4841,7 +4842,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="24" spans="1:13">
+    <row r="24" spans="1:13" hidden="1">
       <c r="A24" s="35" t="s">
         <v>258</v>
       </c>
@@ -4870,7 +4871,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="25" spans="1:13">
+    <row r="25" spans="1:13" hidden="1">
       <c r="A25" s="35" t="s">
         <v>258</v>
       </c>
@@ -4899,7 +4900,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="26" spans="1:13">
+    <row r="26" spans="1:13" hidden="1">
       <c r="A26" s="35" t="s">
         <v>258</v>
       </c>
@@ -4928,7 +4929,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="27" spans="1:13">
+    <row r="27" spans="1:13" hidden="1">
       <c r="A27" s="35" t="s">
         <v>258</v>
       </c>
@@ -4957,7 +4958,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="28" spans="1:13">
+    <row r="28" spans="1:13" hidden="1">
       <c r="A28" s="35" t="s">
         <v>258</v>
       </c>
@@ -4986,7 +4987,7 @@
         <v>2.8000000000000003</v>
       </c>
     </row>
-    <row r="29" spans="1:13">
+    <row r="29" spans="1:13" hidden="1">
       <c r="A29" s="35" t="s">
         <v>258</v>
       </c>
@@ -5015,7 +5016,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="30" spans="1:13">
+    <row r="30" spans="1:13" hidden="1">
       <c r="A30" s="35" t="s">
         <v>258</v>
       </c>
@@ -5044,7 +5045,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="31" spans="1:13">
+    <row r="31" spans="1:13" hidden="1">
       <c r="A31" s="35" t="s">
         <v>258</v>
       </c>
@@ -5073,7 +5074,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="32" spans="1:13">
+    <row r="32" spans="1:13" hidden="1">
       <c r="A32" s="35" t="s">
         <v>258</v>
       </c>
@@ -5102,7 +5103,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="33" spans="1:14">
+    <row r="33" spans="1:14" hidden="1">
       <c r="A33" s="35" t="s">
         <v>258</v>
       </c>
@@ -5131,7 +5132,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:14">
+    <row r="34" spans="1:14" hidden="1">
       <c r="A34" s="35" t="s">
         <v>258</v>
       </c>
@@ -5160,7 +5161,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="35" spans="1:14">
+    <row r="35" spans="1:14" hidden="1">
       <c r="A35" s="35" t="s">
         <v>258</v>
       </c>
@@ -5189,7 +5190,7 @@
         <v>1.2000000000000002</v>
       </c>
     </row>
-    <row r="36" spans="1:14">
+    <row r="36" spans="1:14" hidden="1">
       <c r="A36" s="35" t="s">
         <v>258</v>
       </c>
@@ -5218,7 +5219,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="37" spans="1:14">
+    <row r="37" spans="1:14" hidden="1">
       <c r="A37" s="35" t="s">
         <v>258</v>
       </c>
@@ -5247,7 +5248,7 @@
         <v>1.7000000000000002</v>
       </c>
     </row>
-    <row r="38" spans="1:14">
+    <row r="38" spans="1:14" hidden="1">
       <c r="A38" s="35" t="s">
         <v>258</v>
       </c>
@@ -5277,7 +5278,7 @@
       </c>
       <c r="N38" s="37"/>
     </row>
-    <row r="39" spans="1:14">
+    <row r="39" spans="1:14" hidden="1">
       <c r="A39" s="35" t="s">
         <v>258</v>
       </c>
@@ -5307,7 +5308,7 @@
       </c>
       <c r="N39" s="37"/>
     </row>
-    <row r="40" spans="1:14">
+    <row r="40" spans="1:14" hidden="1">
       <c r="A40" s="35" t="s">
         <v>258</v>
       </c>
@@ -5337,7 +5338,7 @@
       </c>
       <c r="N40" s="37"/>
     </row>
-    <row r="41" spans="1:14">
+    <row r="41" spans="1:14" hidden="1">
       <c r="A41" s="35" t="s">
         <v>258</v>
       </c>
@@ -5367,7 +5368,7 @@
       </c>
       <c r="N41" s="37"/>
     </row>
-    <row r="42" spans="1:14">
+    <row r="42" spans="1:14" hidden="1">
       <c r="A42" s="35" t="s">
         <v>258</v>
       </c>
@@ -5397,7 +5398,7 @@
       </c>
       <c r="N42" s="37"/>
     </row>
-    <row r="43" spans="1:14">
+    <row r="43" spans="1:14" hidden="1">
       <c r="A43" s="35" t="s">
         <v>258</v>
       </c>
@@ -5427,7 +5428,7 @@
       </c>
       <c r="N43" s="37"/>
     </row>
-    <row r="44" spans="1:14">
+    <row r="44" spans="1:14" hidden="1">
       <c r="A44" s="35" t="s">
         <v>258</v>
       </c>
@@ -5457,7 +5458,7 @@
       </c>
       <c r="N44" s="37"/>
     </row>
-    <row r="45" spans="1:14">
+    <row r="45" spans="1:14" hidden="1">
       <c r="A45" s="35" t="s">
         <v>258</v>
       </c>
@@ -5487,7 +5488,7 @@
       </c>
       <c r="N45" s="37"/>
     </row>
-    <row r="46" spans="1:14">
+    <row r="46" spans="1:14" hidden="1">
       <c r="A46" s="35" t="s">
         <v>258</v>
       </c>
@@ -5517,7 +5518,7 @@
       </c>
       <c r="N46" s="37"/>
     </row>
-    <row r="47" spans="1:14">
+    <row r="47" spans="1:14" hidden="1">
       <c r="A47" s="35" t="s">
         <v>258</v>
       </c>
@@ -5547,7 +5548,7 @@
       </c>
       <c r="N47" s="37"/>
     </row>
-    <row r="48" spans="1:14">
+    <row r="48" spans="1:14" hidden="1">
       <c r="A48" s="35" t="s">
         <v>258</v>
       </c>
@@ -5577,7 +5578,7 @@
       </c>
       <c r="N48" s="37"/>
     </row>
-    <row r="49" spans="1:14">
+    <row r="49" spans="1:14" hidden="1">
       <c r="A49" s="35" t="s">
         <v>258</v>
       </c>
@@ -5607,7 +5608,7 @@
       </c>
       <c r="N49" s="37"/>
     </row>
-    <row r="50" spans="1:14">
+    <row r="50" spans="1:14" hidden="1">
       <c r="A50" s="35" t="s">
         <v>258</v>
       </c>
@@ -5637,7 +5638,7 @@
       </c>
       <c r="N50" s="37"/>
     </row>
-    <row r="51" spans="1:14">
+    <row r="51" spans="1:14" hidden="1">
       <c r="A51" s="35" t="s">
         <v>258</v>
       </c>
@@ -5667,7 +5668,7 @@
       </c>
       <c r="N51" s="37"/>
     </row>
-    <row r="52" spans="1:14">
+    <row r="52" spans="1:14" hidden="1">
       <c r="A52" s="35" t="s">
         <v>258</v>
       </c>
@@ -5697,7 +5698,7 @@
       </c>
       <c r="N52" s="37"/>
     </row>
-    <row r="53" spans="1:14">
+    <row r="53" spans="1:14" hidden="1">
       <c r="A53" s="35" t="s">
         <v>258</v>
       </c>
@@ -5727,7 +5728,7 @@
       </c>
       <c r="N53" s="37"/>
     </row>
-    <row r="54" spans="1:14">
+    <row r="54" spans="1:14" hidden="1">
       <c r="A54" s="35" t="s">
         <v>258</v>
       </c>
@@ -5757,7 +5758,7 @@
       </c>
       <c r="N54" s="37"/>
     </row>
-    <row r="55" spans="1:14">
+    <row r="55" spans="1:14" hidden="1">
       <c r="A55" s="35" t="s">
         <v>258</v>
       </c>
@@ -5787,7 +5788,7 @@
       </c>
       <c r="N55" s="37"/>
     </row>
-    <row r="56" spans="1:14">
+    <row r="56" spans="1:14" hidden="1">
       <c r="A56" s="35" t="s">
         <v>258</v>
       </c>
@@ -5817,7 +5818,7 @@
       </c>
       <c r="N56" s="37"/>
     </row>
-    <row r="57" spans="1:14">
+    <row r="57" spans="1:14" hidden="1">
       <c r="A57" s="35" t="s">
         <v>258</v>
       </c>
@@ -5847,7 +5848,7 @@
       </c>
       <c r="N57" s="37"/>
     </row>
-    <row r="58" spans="1:14">
+    <row r="58" spans="1:14" hidden="1">
       <c r="A58" s="35" t="s">
         <v>258</v>
       </c>
@@ -5877,7 +5878,7 @@
       </c>
       <c r="N58" s="37"/>
     </row>
-    <row r="59" spans="1:14">
+    <row r="59" spans="1:14" hidden="1">
       <c r="A59" s="35" t="s">
         <v>258</v>
       </c>
@@ -5907,7 +5908,7 @@
       </c>
       <c r="N59" s="37"/>
     </row>
-    <row r="60" spans="1:14">
+    <row r="60" spans="1:14" hidden="1">
       <c r="A60" s="35" t="s">
         <v>258</v>
       </c>
@@ -5937,7 +5938,7 @@
       </c>
       <c r="N60" s="37"/>
     </row>
-    <row r="61" spans="1:14">
+    <row r="61" spans="1:14" hidden="1">
       <c r="A61" s="35" t="s">
         <v>258</v>
       </c>
@@ -5967,7 +5968,7 @@
       </c>
       <c r="N61" s="37"/>
     </row>
-    <row r="62" spans="1:14">
+    <row r="62" spans="1:14" hidden="1">
       <c r="A62" s="35" t="s">
         <v>258</v>
       </c>
@@ -5997,7 +5998,7 @@
       </c>
       <c r="N62" s="37"/>
     </row>
-    <row r="63" spans="1:14">
+    <row r="63" spans="1:14" hidden="1">
       <c r="A63" s="35" t="s">
         <v>258</v>
       </c>
@@ -6027,7 +6028,7 @@
       </c>
       <c r="N63" s="37"/>
     </row>
-    <row r="64" spans="1:14">
+    <row r="64" spans="1:14" hidden="1">
       <c r="A64" s="35" t="s">
         <v>258</v>
       </c>
@@ -6057,7 +6058,7 @@
       </c>
       <c r="N64" s="37"/>
     </row>
-    <row r="65" spans="1:14">
+    <row r="65" spans="1:14" hidden="1">
       <c r="A65" s="35" t="s">
         <v>258</v>
       </c>
@@ -6087,7 +6088,7 @@
       </c>
       <c r="N65" s="37"/>
     </row>
-    <row r="66" spans="1:14">
+    <row r="66" spans="1:14" hidden="1">
       <c r="A66" s="35" t="s">
         <v>258</v>
       </c>
@@ -6117,7 +6118,7 @@
       </c>
       <c r="N66" s="37"/>
     </row>
-    <row r="67" spans="1:14">
+    <row r="67" spans="1:14" hidden="1">
       <c r="A67" s="35" t="s">
         <v>258</v>
       </c>
@@ -6147,7 +6148,7 @@
       </c>
       <c r="N67" s="37"/>
     </row>
-    <row r="68" spans="1:14">
+    <row r="68" spans="1:14" hidden="1">
       <c r="A68" s="35" t="s">
         <v>258</v>
       </c>
@@ -6177,7 +6178,7 @@
       </c>
       <c r="N68" s="37"/>
     </row>
-    <row r="69" spans="1:14">
+    <row r="69" spans="1:14" hidden="1">
       <c r="A69" s="35" t="s">
         <v>258</v>
       </c>
@@ -6207,7 +6208,7 @@
       </c>
       <c r="N69" s="37"/>
     </row>
-    <row r="70" spans="1:14">
+    <row r="70" spans="1:14" hidden="1">
       <c r="A70" s="35" t="s">
         <v>258</v>
       </c>
@@ -6237,7 +6238,7 @@
       </c>
       <c r="N70" s="37"/>
     </row>
-    <row r="71" spans="1:14">
+    <row r="71" spans="1:14" hidden="1">
       <c r="A71" s="35" t="s">
         <v>258</v>
       </c>
@@ -6267,7 +6268,7 @@
       </c>
       <c r="N71" s="37"/>
     </row>
-    <row r="72" spans="1:14">
+    <row r="72" spans="1:14" hidden="1">
       <c r="A72" s="35" t="s">
         <v>258</v>
       </c>
@@ -6297,7 +6298,7 @@
       </c>
       <c r="N72" s="37"/>
     </row>
-    <row r="73" spans="1:14">
+    <row r="73" spans="1:14" hidden="1">
       <c r="A73" s="35" t="s">
         <v>258</v>
       </c>
@@ -6327,7 +6328,7 @@
       </c>
       <c r="N73" s="37"/>
     </row>
-    <row r="74" spans="1:14">
+    <row r="74" spans="1:14" hidden="1">
       <c r="A74" s="35" t="s">
         <v>258</v>
       </c>
@@ -6357,7 +6358,7 @@
       </c>
       <c r="N74" s="37"/>
     </row>
-    <row r="75" spans="1:14">
+    <row r="75" spans="1:14" hidden="1">
       <c r="A75" s="35" t="s">
         <v>258</v>
       </c>
@@ -6387,7 +6388,7 @@
       </c>
       <c r="N75" s="37"/>
     </row>
-    <row r="76" spans="1:14">
+    <row r="76" spans="1:14" hidden="1">
       <c r="A76" s="35" t="s">
         <v>258</v>
       </c>
@@ -6416,7 +6417,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="77" spans="1:14">
+    <row r="77" spans="1:14" hidden="1">
       <c r="A77" s="35" t="s">
         <v>258</v>
       </c>
@@ -6445,7 +6446,7 @@
         <v>1.4000000000000001</v>
       </c>
     </row>
-    <row r="78" spans="1:14">
+    <row r="78" spans="1:14" hidden="1">
       <c r="A78" s="35" t="s">
         <v>258</v>
       </c>
@@ -6474,7 +6475,7 @@
         <v>2.3000000000000003</v>
       </c>
     </row>
-    <row r="79" spans="1:14">
+    <row r="79" spans="1:14" hidden="1">
       <c r="A79" s="35" t="s">
         <v>258</v>
       </c>
@@ -6503,7 +6504,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="80" spans="1:14">
+    <row r="80" spans="1:14" hidden="1">
       <c r="A80" s="35" t="s">
         <v>258</v>
       </c>
@@ -6532,7 +6533,7 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="81" spans="1:13">
+    <row r="81" spans="1:13" hidden="1">
       <c r="A81" s="35" t="s">
         <v>258</v>
       </c>
@@ -6561,7 +6562,7 @@
         <v>1.2000000000000002</v>
       </c>
     </row>
-    <row r="82" spans="1:13">
+    <row r="82" spans="1:13" hidden="1">
       <c r="A82" s="35" t="s">
         <v>258</v>
       </c>
@@ -6590,7 +6591,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="83" spans="1:13">
+    <row r="83" spans="1:13" hidden="1">
       <c r="A83" s="35" t="s">
         <v>258</v>
       </c>
@@ -6619,7 +6620,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="84" spans="1:13">
+    <row r="84" spans="1:13" hidden="1">
       <c r="A84" s="35" t="s">
         <v>258</v>
       </c>
@@ -6648,7 +6649,7 @@
         <v>1.2000000000000002</v>
       </c>
     </row>
-    <row r="85" spans="1:13">
+    <row r="85" spans="1:13" hidden="1">
       <c r="A85" s="35" t="s">
         <v>258</v>
       </c>
@@ -6677,7 +6678,7 @@
         <v>1.7000000000000002</v>
       </c>
     </row>
-    <row r="86" spans="1:13">
+    <row r="86" spans="1:13" hidden="1">
       <c r="A86" s="35" t="s">
         <v>258</v>
       </c>
@@ -6706,7 +6707,7 @@
         <v>1.9000000000000001</v>
       </c>
     </row>
-    <row r="87" spans="1:13">
+    <row r="87" spans="1:13" hidden="1">
       <c r="A87" s="35" t="s">
         <v>258</v>
       </c>
@@ -6735,7 +6736,7 @@
         <v>2.9000000000000004</v>
       </c>
     </row>
-    <row r="88" spans="1:13">
+    <row r="88" spans="1:13" hidden="1">
       <c r="A88" s="35" t="s">
         <v>258</v>
       </c>
@@ -6764,7 +6765,7 @@
         <v>1.2000000000000002</v>
       </c>
     </row>
-    <row r="89" spans="1:13">
+    <row r="89" spans="1:13" hidden="1">
       <c r="A89" s="35" t="s">
         <v>258</v>
       </c>
@@ -6793,7 +6794,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="90" spans="1:13">
+    <row r="90" spans="1:13" hidden="1">
       <c r="A90" s="35" t="s">
         <v>258</v>
       </c>
@@ -6822,7 +6823,7 @@
         <v>2.8000000000000003</v>
       </c>
     </row>
-    <row r="91" spans="1:13">
+    <row r="91" spans="1:13" hidden="1">
       <c r="A91" s="35" t="s">
         <v>258</v>
       </c>
@@ -6851,7 +6852,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="92" spans="1:13">
+    <row r="92" spans="1:13" hidden="1">
       <c r="A92" s="35" t="s">
         <v>258</v>
       </c>
@@ -6880,7 +6881,7 @@
         <v>1.7000000000000002</v>
       </c>
     </row>
-    <row r="93" spans="1:13">
+    <row r="93" spans="1:13" hidden="1">
       <c r="A93" s="35" t="s">
         <v>258</v>
       </c>
@@ -6909,7 +6910,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="94" spans="1:13">
+    <row r="94" spans="1:13" hidden="1">
       <c r="A94" s="35" t="s">
         <v>258</v>
       </c>
@@ -6938,7 +6939,7 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="95" spans="1:13">
+    <row r="95" spans="1:13" hidden="1">
       <c r="A95" s="35" t="s">
         <v>258</v>
       </c>
@@ -6967,7 +6968,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="96" spans="1:13">
+    <row r="96" spans="1:13" hidden="1">
       <c r="A96" s="35" t="s">
         <v>258</v>
       </c>
@@ -6996,7 +6997,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="97" spans="1:13">
+    <row r="97" spans="1:13" hidden="1">
       <c r="A97" s="35" t="s">
         <v>259</v>
       </c>
@@ -7025,7 +7026,7 @@
         <v>1.2000000000000002</v>
       </c>
     </row>
-    <row r="98" spans="1:13">
+    <row r="98" spans="1:13" hidden="1">
       <c r="A98" s="35" t="s">
         <v>258</v>
       </c>
@@ -7054,7 +7055,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="99" spans="1:13">
+    <row r="99" spans="1:13" hidden="1">
       <c r="A99" s="35" t="s">
         <v>258</v>
       </c>
@@ -7083,7 +7084,7 @@
         <v>0.60000000000000009</v>
       </c>
     </row>
-    <row r="100" spans="1:13">
+    <row r="100" spans="1:13" hidden="1">
       <c r="A100" s="35" t="s">
         <v>258</v>
       </c>
@@ -7112,7 +7113,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="101" spans="1:13">
+    <row r="101" spans="1:13" hidden="1">
       <c r="A101" s="35" t="s">
         <v>258</v>
       </c>
@@ -7141,7 +7142,7 @@
         <v>0.60000000000000009</v>
       </c>
     </row>
-    <row r="102" spans="1:13">
+    <row r="102" spans="1:13" hidden="1">
       <c r="A102" s="35" t="s">
         <v>258</v>
       </c>
@@ -7170,7 +7171,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="103" spans="1:13">
+    <row r="103" spans="1:13" hidden="1">
       <c r="A103" s="35" t="s">
         <v>258</v>
       </c>
@@ -7199,7 +7200,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="104" spans="1:13">
+    <row r="104" spans="1:13" hidden="1">
       <c r="A104" s="35" t="s">
         <v>258</v>
       </c>
@@ -7228,7 +7229,7 @@
         <v>0.67</v>
       </c>
     </row>
-    <row r="105" spans="1:13">
+    <row r="105" spans="1:13" hidden="1">
       <c r="A105" s="35" t="s">
         <v>258</v>
       </c>
@@ -7257,7 +7258,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="106" spans="1:13">
+    <row r="106" spans="1:13" hidden="1">
       <c r="A106" s="35" t="s">
         <v>258</v>
       </c>
@@ -7286,7 +7287,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="107" spans="1:13">
+    <row r="107" spans="1:13" hidden="1">
       <c r="A107" s="35" t="s">
         <v>258</v>
       </c>
@@ -7315,7 +7316,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="108" spans="1:13">
+    <row r="108" spans="1:13" hidden="1">
       <c r="A108" s="35" t="s">
         <v>258</v>
       </c>
@@ -7344,7 +7345,7 @@
         <v>1.2000000000000002</v>
       </c>
     </row>
-    <row r="109" spans="1:13">
+    <row r="109" spans="1:13" hidden="1">
       <c r="A109" s="35" t="s">
         <v>258</v>
       </c>
@@ -7373,7 +7374,7 @@
         <v>0.70000000000000007</v>
       </c>
     </row>
-    <row r="110" spans="1:13">
+    <row r="110" spans="1:13" hidden="1">
       <c r="A110" s="35" t="s">
         <v>258</v>
       </c>
@@ -7402,7 +7403,7 @@
         <v>0.70000000000000007</v>
       </c>
     </row>
-    <row r="111" spans="1:13">
+    <row r="111" spans="1:13" hidden="1">
       <c r="A111" s="35" t="s">
         <v>258</v>
       </c>
@@ -7431,7 +7432,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="112" spans="1:13">
+    <row r="112" spans="1:13" hidden="1">
       <c r="A112" s="35" t="s">
         <v>258</v>
       </c>
@@ -7460,7 +7461,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="113" spans="1:13">
+    <row r="113" spans="1:13" hidden="1">
       <c r="A113" s="35" t="s">
         <v>258</v>
       </c>
@@ -7489,7 +7490,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="114" spans="1:13">
+    <row r="114" spans="1:13" hidden="1">
       <c r="A114" s="35" t="s">
         <v>258</v>
       </c>
@@ -7518,7 +7519,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="115" spans="1:13">
+    <row r="115" spans="1:13" hidden="1">
       <c r="A115" s="35" t="s">
         <v>258</v>
       </c>
@@ -7547,7 +7548,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="116" spans="1:13">
+    <row r="116" spans="1:13" hidden="1">
       <c r="A116" s="35" t="s">
         <v>258</v>
       </c>
@@ -7576,7 +7577,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="117" spans="1:13">
+    <row r="117" spans="1:13" hidden="1">
       <c r="A117" s="35" t="s">
         <v>258</v>
       </c>
@@ -7605,7 +7606,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="118" spans="1:13">
+    <row r="118" spans="1:13" hidden="1">
       <c r="A118" s="35" t="s">
         <v>258</v>
       </c>
@@ -7634,7 +7635,7 @@
         <v>0.70000000000000007</v>
       </c>
     </row>
-    <row r="119" spans="1:13">
+    <row r="119" spans="1:13" hidden="1">
       <c r="A119" s="35" t="s">
         <v>258</v>
       </c>
@@ -7663,7 +7664,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="120" spans="1:13">
+    <row r="120" spans="1:13" hidden="1">
       <c r="A120" s="35" t="s">
         <v>258</v>
       </c>
@@ -7692,7 +7693,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="121" spans="1:13">
+    <row r="121" spans="1:13" hidden="1">
       <c r="A121" s="35" t="s">
         <v>258</v>
       </c>
@@ -7721,7 +7722,7 @@
         <v>0.35000000000000003</v>
       </c>
     </row>
-    <row r="122" spans="1:13">
+    <row r="122" spans="1:13" hidden="1">
       <c r="A122" s="35" t="s">
         <v>258</v>
       </c>
@@ -7750,7 +7751,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="123" spans="1:13">
+    <row r="123" spans="1:13" hidden="1">
       <c r="A123" s="35" t="s">
         <v>258</v>
       </c>
@@ -7779,7 +7780,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="124" spans="1:13">
+    <row r="124" spans="1:13" hidden="1">
       <c r="A124" s="35" t="s">
         <v>258</v>
       </c>
@@ -7808,7 +7809,7 @@
         <v>0.35000000000000003</v>
       </c>
     </row>
-    <row r="125" spans="1:13">
+    <row r="125" spans="1:13" hidden="1">
       <c r="A125" s="35" t="s">
         <v>258</v>
       </c>
@@ -7837,7 +7838,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="126" spans="1:13">
+    <row r="126" spans="1:13" hidden="1">
       <c r="A126" s="35" t="s">
         <v>258</v>
       </c>
@@ -7866,7 +7867,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="127" spans="1:13">
+    <row r="127" spans="1:13" hidden="1">
       <c r="A127" s="35" t="s">
         <v>258</v>
       </c>
@@ -7895,7 +7896,7 @@
         <v>0.30000000000000004</v>
       </c>
     </row>
-    <row r="128" spans="1:13">
+    <row r="128" spans="1:13" hidden="1">
       <c r="A128" s="35" t="s">
         <v>258</v>
       </c>
@@ -7924,7 +7925,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="129" spans="1:14">
+    <row r="129" spans="1:14" hidden="1">
       <c r="A129" s="35" t="s">
         <v>258</v>
       </c>
@@ -7953,7 +7954,7 @@
         <v>0.30000000000000004</v>
       </c>
     </row>
-    <row r="130" spans="1:14">
+    <row r="130" spans="1:14" hidden="1">
       <c r="A130" s="35" t="s">
         <v>258</v>
       </c>
@@ -7982,7 +7983,7 @@
         <v>0.30000000000000004</v>
       </c>
     </row>
-    <row r="131" spans="1:14">
+    <row r="131" spans="1:14" hidden="1">
       <c r="A131" s="35" t="s">
         <v>258</v>
       </c>
@@ -8011,7 +8012,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="132" spans="1:14">
+    <row r="132" spans="1:14" hidden="1">
       <c r="A132" s="35" t="s">
         <v>258</v>
       </c>
@@ -8040,7 +8041,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="133" spans="1:14">
+    <row r="133" spans="1:14" hidden="1">
       <c r="A133" s="35" t="s">
         <v>258</v>
       </c>
@@ -8069,7 +8070,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="134" spans="1:14">
+    <row r="134" spans="1:14" hidden="1">
       <c r="A134" s="35" t="s">
         <v>258</v>
       </c>
@@ -8098,7 +8099,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="135" spans="1:14">
+    <row r="135" spans="1:14" hidden="1">
       <c r="A135" s="35" t="s">
         <v>258</v>
       </c>
@@ -8127,7 +8128,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="136" spans="1:14">
+    <row r="136" spans="1:14" hidden="1">
       <c r="A136" s="35" t="s">
         <v>258</v>
       </c>
@@ -8156,7 +8157,7 @@
         <v>0.95000000000000007</v>
       </c>
     </row>
-    <row r="137" spans="1:14">
+    <row r="137" spans="1:14" hidden="1">
       <c r="A137" s="35" t="s">
         <v>258</v>
       </c>
@@ -8186,7 +8187,7 @@
       </c>
       <c r="N137" s="37"/>
     </row>
-    <row r="138" spans="1:14">
+    <row r="138" spans="1:14" hidden="1">
       <c r="A138" s="35" t="s">
         <v>258</v>
       </c>
@@ -8216,7 +8217,7 @@
       </c>
       <c r="N138" s="37"/>
     </row>
-    <row r="139" spans="1:14">
+    <row r="139" spans="1:14" hidden="1">
       <c r="A139" s="35" t="s">
         <v>258</v>
       </c>
@@ -8246,7 +8247,7 @@
       </c>
       <c r="N139" s="37"/>
     </row>
-    <row r="140" spans="1:14">
+    <row r="140" spans="1:14" hidden="1">
       <c r="A140" s="35" t="s">
         <v>258</v>
       </c>
@@ -8276,7 +8277,7 @@
       </c>
       <c r="N140" s="37"/>
     </row>
-    <row r="141" spans="1:14">
+    <row r="141" spans="1:14" hidden="1">
       <c r="A141" s="35" t="s">
         <v>258</v>
       </c>
@@ -8306,7 +8307,7 @@
       </c>
       <c r="N141" s="37"/>
     </row>
-    <row r="142" spans="1:14">
+    <row r="142" spans="1:14" hidden="1">
       <c r="A142" s="35" t="s">
         <v>258</v>
       </c>
@@ -8336,7 +8337,7 @@
       </c>
       <c r="N142" s="37"/>
     </row>
-    <row r="143" spans="1:14">
+    <row r="143" spans="1:14" hidden="1">
       <c r="A143" s="35" t="s">
         <v>258</v>
       </c>
@@ -8366,7 +8367,7 @@
       </c>
       <c r="N143" s="37"/>
     </row>
-    <row r="144" spans="1:14">
+    <row r="144" spans="1:14" hidden="1">
       <c r="A144" s="35" t="s">
         <v>258</v>
       </c>
@@ -8396,7 +8397,7 @@
       </c>
       <c r="N144" s="37"/>
     </row>
-    <row r="145" spans="1:14">
+    <row r="145" spans="1:14" hidden="1">
       <c r="A145" s="35" t="s">
         <v>258</v>
       </c>
@@ -8426,7 +8427,7 @@
       </c>
       <c r="N145" s="37"/>
     </row>
-    <row r="146" spans="1:14">
+    <row r="146" spans="1:14" hidden="1">
       <c r="A146" s="35" t="s">
         <v>258</v>
       </c>
@@ -8456,7 +8457,7 @@
       </c>
       <c r="N146" s="37"/>
     </row>
-    <row r="147" spans="1:14">
+    <row r="147" spans="1:14" hidden="1">
       <c r="A147" s="35" t="s">
         <v>258</v>
       </c>
@@ -8486,7 +8487,7 @@
       </c>
       <c r="N147" s="37"/>
     </row>
-    <row r="148" spans="1:14">
+    <row r="148" spans="1:14" hidden="1">
       <c r="A148" s="35" t="s">
         <v>258</v>
       </c>
@@ -8516,7 +8517,7 @@
       </c>
       <c r="N148" s="37"/>
     </row>
-    <row r="149" spans="1:14">
+    <row r="149" spans="1:14" hidden="1">
       <c r="A149" s="35" t="s">
         <v>258</v>
       </c>
@@ -8546,7 +8547,7 @@
       </c>
       <c r="N149" s="37"/>
     </row>
-    <row r="150" spans="1:14">
+    <row r="150" spans="1:14" hidden="1">
       <c r="A150" s="35" t="s">
         <v>258</v>
       </c>
@@ -8576,7 +8577,7 @@
       </c>
       <c r="N150" s="37"/>
     </row>
-    <row r="151" spans="1:14">
+    <row r="151" spans="1:14" hidden="1">
       <c r="A151" s="35" t="s">
         <v>258</v>
       </c>
@@ -8606,7 +8607,7 @@
       </c>
       <c r="N151" s="37"/>
     </row>
-    <row r="152" spans="1:14">
+    <row r="152" spans="1:14" hidden="1">
       <c r="A152" s="35" t="s">
         <v>258</v>
       </c>
@@ -8636,7 +8637,7 @@
       </c>
       <c r="N152" s="37"/>
     </row>
-    <row r="153" spans="1:14">
+    <row r="153" spans="1:14" hidden="1">
       <c r="A153" s="35" t="s">
         <v>258</v>
       </c>
@@ -8666,7 +8667,7 @@
       </c>
       <c r="N153" s="37"/>
     </row>
-    <row r="154" spans="1:14">
+    <row r="154" spans="1:14" hidden="1">
       <c r="A154" s="35" t="s">
         <v>258</v>
       </c>
@@ -8696,7 +8697,7 @@
       </c>
       <c r="N154" s="37"/>
     </row>
-    <row r="155" spans="1:14">
+    <row r="155" spans="1:14" hidden="1">
       <c r="A155" s="35" t="s">
         <v>258</v>
       </c>
@@ -8726,7 +8727,7 @@
       </c>
       <c r="N155" s="37"/>
     </row>
-    <row r="156" spans="1:14">
+    <row r="156" spans="1:14" hidden="1">
       <c r="A156" s="35" t="s">
         <v>258</v>
       </c>
@@ -8756,7 +8757,7 @@
       </c>
       <c r="N156" s="37"/>
     </row>
-    <row r="157" spans="1:14">
+    <row r="157" spans="1:14" hidden="1">
       <c r="A157" s="35" t="s">
         <v>258</v>
       </c>
@@ -8786,7 +8787,7 @@
       </c>
       <c r="N157" s="37"/>
     </row>
-    <row r="158" spans="1:14">
+    <row r="158" spans="1:14" hidden="1">
       <c r="A158" s="35" t="s">
         <v>258</v>
       </c>
@@ -8816,7 +8817,7 @@
       </c>
       <c r="N158" s="37"/>
     </row>
-    <row r="159" spans="1:14">
+    <row r="159" spans="1:14" hidden="1">
       <c r="A159" s="35" t="s">
         <v>258</v>
       </c>
@@ -8846,7 +8847,7 @@
       </c>
       <c r="N159" s="37"/>
     </row>
-    <row r="160" spans="1:14">
+    <row r="160" spans="1:14" hidden="1">
       <c r="A160" s="35" t="s">
         <v>258</v>
       </c>
@@ -8876,7 +8877,7 @@
       </c>
       <c r="N160" s="37"/>
     </row>
-    <row r="161" spans="1:14">
+    <row r="161" spans="1:14" hidden="1">
       <c r="A161" s="35" t="s">
         <v>258</v>
       </c>
@@ -8906,7 +8907,7 @@
       </c>
       <c r="N161" s="37"/>
     </row>
-    <row r="162" spans="1:14">
+    <row r="162" spans="1:14" hidden="1">
       <c r="A162" s="35" t="s">
         <v>258</v>
       </c>
@@ -8936,7 +8937,7 @@
       </c>
       <c r="N162" s="37"/>
     </row>
-    <row r="163" spans="1:14">
+    <row r="163" spans="1:14" hidden="1">
       <c r="A163" s="35" t="s">
         <v>258</v>
       </c>
@@ -8966,7 +8967,7 @@
       </c>
       <c r="N163" s="37"/>
     </row>
-    <row r="164" spans="1:14">
+    <row r="164" spans="1:14" hidden="1">
       <c r="A164" s="35" t="s">
         <v>258</v>
       </c>
@@ -8996,7 +8997,7 @@
       </c>
       <c r="N164" s="37"/>
     </row>
-    <row r="165" spans="1:14">
+    <row r="165" spans="1:14" hidden="1">
       <c r="A165" s="35" t="s">
         <v>258</v>
       </c>
@@ -9026,7 +9027,7 @@
       </c>
       <c r="N165" s="37"/>
     </row>
-    <row r="166" spans="1:14">
+    <row r="166" spans="1:14" hidden="1">
       <c r="A166" s="35" t="s">
         <v>258</v>
       </c>
@@ -9056,7 +9057,7 @@
       </c>
       <c r="N166" s="37"/>
     </row>
-    <row r="167" spans="1:14">
+    <row r="167" spans="1:14" hidden="1">
       <c r="A167" s="35" t="s">
         <v>258</v>
       </c>
@@ -9086,7 +9087,7 @@
       </c>
       <c r="N167" s="37"/>
     </row>
-    <row r="168" spans="1:14">
+    <row r="168" spans="1:14" hidden="1">
       <c r="A168" s="35" t="s">
         <v>258</v>
       </c>
@@ -9116,7 +9117,7 @@
       </c>
       <c r="N168" s="37"/>
     </row>
-    <row r="169" spans="1:14">
+    <row r="169" spans="1:14" hidden="1">
       <c r="A169" s="35" t="s">
         <v>258</v>
       </c>
@@ -9146,7 +9147,7 @@
       </c>
       <c r="N169" s="37"/>
     </row>
-    <row r="170" spans="1:14">
+    <row r="170" spans="1:14" hidden="1">
       <c r="A170" s="35" t="s">
         <v>258</v>
       </c>
@@ -9176,7 +9177,7 @@
       </c>
       <c r="N170" s="37"/>
     </row>
-    <row r="171" spans="1:14">
+    <row r="171" spans="1:14" hidden="1">
       <c r="A171" s="35" t="s">
         <v>258</v>
       </c>
@@ -9206,7 +9207,7 @@
       </c>
       <c r="N171" s="37"/>
     </row>
-    <row r="172" spans="1:14">
+    <row r="172" spans="1:14" hidden="1">
       <c r="A172" s="35" t="s">
         <v>258</v>
       </c>
@@ -9236,7 +9237,7 @@
       </c>
       <c r="N172" s="37"/>
     </row>
-    <row r="173" spans="1:14">
+    <row r="173" spans="1:14" hidden="1">
       <c r="A173" s="35" t="s">
         <v>258</v>
       </c>
@@ -9265,7 +9266,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="174" spans="1:14">
+    <row r="174" spans="1:14" hidden="1">
       <c r="A174" s="35" t="s">
         <v>259</v>
       </c>
@@ -9294,7 +9295,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="175" spans="1:14">
+    <row r="175" spans="1:14" hidden="1">
       <c r="A175" s="35" t="s">
         <v>259</v>
       </c>
@@ -9323,7 +9324,7 @@
         <v>1.7000000000000002</v>
       </c>
     </row>
-    <row r="176" spans="1:14">
+    <row r="176" spans="1:14" hidden="1">
       <c r="A176" s="35" t="s">
         <v>258</v>
       </c>
@@ -9352,7 +9353,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="177" spans="1:17">
+    <row r="177" spans="1:17" hidden="1">
       <c r="A177" s="35" t="s">
         <v>258</v>
       </c>
@@ -9381,7 +9382,7 @@
         <v>2.4000000000000004</v>
       </c>
     </row>
-    <row r="178" spans="1:17">
+    <row r="178" spans="1:17" hidden="1">
       <c r="A178" s="35" t="s">
         <v>258</v>
       </c>
@@ -9410,7 +9411,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="179" spans="1:17">
+    <row r="179" spans="1:17" hidden="1">
       <c r="A179" s="35" t="s">
         <v>258</v>
       </c>
@@ -9439,7 +9440,7 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="180" spans="1:17">
+    <row r="180" spans="1:17" hidden="1">
       <c r="A180" s="35" t="s">
         <v>258</v>
       </c>
@@ -9468,7 +9469,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="1:17">
+    <row r="181" spans="1:17" hidden="1">
       <c r="A181" s="35" t="s">
         <v>258</v>
       </c>
@@ -9497,7 +9498,7 @@
         <v>3.4000000000000004</v>
       </c>
     </row>
-    <row r="182" spans="1:17">
+    <row r="182" spans="1:17" hidden="1">
       <c r="A182" s="35" t="s">
         <v>258</v>
       </c>
@@ -9526,7 +9527,7 @@
         <v>1.7000000000000002</v>
       </c>
     </row>
-    <row r="183" spans="1:17">
+    <row r="183" spans="1:17" hidden="1">
       <c r="A183" s="35" t="s">
         <v>258</v>
       </c>
@@ -9556,7 +9557,7 @@
       </c>
       <c r="Q183" s="37"/>
     </row>
-    <row r="184" spans="1:17">
+    <row r="184" spans="1:17" hidden="1">
       <c r="A184" s="35" t="s">
         <v>258</v>
       </c>
@@ -9585,7 +9586,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="185" spans="1:17">
+    <row r="185" spans="1:17" hidden="1">
       <c r="A185" s="35" t="s">
         <v>258</v>
       </c>
@@ -9614,7 +9615,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="186" spans="1:17">
+    <row r="186" spans="1:17" hidden="1">
       <c r="A186" s="35" t="s">
         <v>258</v>
       </c>
@@ -9643,7 +9644,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="187" spans="1:17">
+    <row r="187" spans="1:17" hidden="1">
       <c r="A187" s="35" t="s">
         <v>258</v>
       </c>
@@ -9673,7 +9674,7 @@
       </c>
       <c r="N187" s="37"/>
     </row>
-    <row r="188" spans="1:17">
+    <row r="188" spans="1:17" hidden="1">
       <c r="A188" s="35" t="s">
         <v>258</v>
       </c>
@@ -9703,7 +9704,7 @@
       </c>
       <c r="N188" s="37"/>
     </row>
-    <row r="189" spans="1:17">
+    <row r="189" spans="1:17" hidden="1">
       <c r="A189" s="35" t="s">
         <v>258</v>
       </c>
@@ -9733,7 +9734,7 @@
       </c>
       <c r="N189" s="37"/>
     </row>
-    <row r="190" spans="1:17">
+    <row r="190" spans="1:17" hidden="1">
       <c r="A190" s="35" t="s">
         <v>258</v>
       </c>
@@ -9763,7 +9764,7 @@
       </c>
       <c r="N190" s="37"/>
     </row>
-    <row r="191" spans="1:17">
+    <row r="191" spans="1:17" hidden="1">
       <c r="A191" s="35" t="s">
         <v>258</v>
       </c>
@@ -9793,7 +9794,7 @@
       </c>
       <c r="N191" s="37"/>
     </row>
-    <row r="192" spans="1:17">
+    <row r="192" spans="1:17" hidden="1">
       <c r="A192" s="35" t="s">
         <v>258</v>
       </c>
@@ -9823,7 +9824,7 @@
       </c>
       <c r="N192" s="37"/>
     </row>
-    <row r="193" spans="1:17">
+    <row r="193" spans="1:17" hidden="1">
       <c r="A193" s="35" t="s">
         <v>258</v>
       </c>
@@ -9853,7 +9854,7 @@
       </c>
       <c r="N193" s="37"/>
     </row>
-    <row r="194" spans="1:17">
+    <row r="194" spans="1:17" hidden="1">
       <c r="A194" s="35" t="s">
         <v>258</v>
       </c>
@@ -9885,7 +9886,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="195" spans="1:17">
+    <row r="195" spans="1:17" hidden="1">
       <c r="A195" s="35" t="s">
         <v>258</v>
       </c>
@@ -9917,7 +9918,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="196" spans="1:17">
+    <row r="196" spans="1:17" hidden="1">
       <c r="A196" s="35" t="s">
         <v>258</v>
       </c>
@@ -9949,7 +9950,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="197" spans="1:17">
+    <row r="197" spans="1:17" hidden="1">
       <c r="A197" s="35" t="s">
         <v>258</v>
       </c>
@@ -9981,7 +9982,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="198" spans="1:17">
+    <row r="198" spans="1:17" hidden="1">
       <c r="A198" s="35" t="s">
         <v>258</v>
       </c>
@@ -10013,7 +10014,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="199" spans="1:17">
+    <row r="199" spans="1:17" hidden="1">
       <c r="A199" s="35" t="s">
         <v>258</v>
       </c>
@@ -10045,7 +10046,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="200" spans="1:17">
+    <row r="200" spans="1:17" hidden="1">
       <c r="A200" s="35" t="s">
         <v>258</v>
       </c>
@@ -10077,7 +10078,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="201" spans="1:17">
+    <row r="201" spans="1:17" hidden="1">
       <c r="A201" s="35" t="s">
         <v>258</v>
       </c>
@@ -10109,7 +10110,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="202" spans="1:17">
+    <row r="202" spans="1:17" hidden="1">
       <c r="A202" s="35" t="s">
         <v>258</v>
       </c>
@@ -10141,7 +10142,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="203" spans="1:17">
+    <row r="203" spans="1:17" hidden="1">
       <c r="A203" s="35" t="s">
         <v>258</v>
       </c>
@@ -10173,7 +10174,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="204" spans="1:17">
+    <row r="204" spans="1:17" hidden="1">
       <c r="A204" s="35" t="s">
         <v>258</v>
       </c>
@@ -10205,7 +10206,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="205" spans="1:17">
+    <row r="205" spans="1:17" hidden="1">
       <c r="A205" s="35" t="s">
         <v>258</v>
       </c>
@@ -10237,7 +10238,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="206" spans="1:17">
+    <row r="206" spans="1:17" hidden="1">
       <c r="A206" s="35" t="s">
         <v>258</v>
       </c>
@@ -10269,7 +10270,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="207" spans="1:17">
+    <row r="207" spans="1:17" hidden="1">
       <c r="A207" s="35" t="s">
         <v>258</v>
       </c>
@@ -10302,7 +10303,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="208" spans="1:17">
+    <row r="208" spans="1:17" hidden="1">
       <c r="A208" s="35" t="s">
         <v>258</v>
       </c>
@@ -10335,7 +10336,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="209" spans="1:17">
+    <row r="209" spans="1:17" hidden="1">
       <c r="A209" s="35" t="s">
         <v>258</v>
       </c>
@@ -11094,7 +11095,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="232" spans="1:17">
+    <row r="232" spans="1:17" hidden="1">
       <c r="A232" s="35" t="s">
         <v>258</v>
       </c>
@@ -11123,7 +11124,7 @@
         <v>14.5</v>
       </c>
     </row>
-    <row r="233" spans="1:17">
+    <row r="233" spans="1:17" hidden="1">
       <c r="A233" s="35" t="s">
         <v>258</v>
       </c>
@@ -11152,7 +11153,7 @@
         <v>1.9000000000000001</v>
       </c>
     </row>
-    <row r="234" spans="1:17">
+    <row r="234" spans="1:17" hidden="1">
       <c r="A234" s="35" t="s">
         <v>258</v>
       </c>
@@ -11181,7 +11182,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="235" spans="1:17">
+    <row r="235" spans="1:17" hidden="1">
       <c r="A235" s="35" t="s">
         <v>258</v>
       </c>
@@ -11210,7 +11211,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="236" spans="1:17">
+    <row r="236" spans="1:17" hidden="1">
       <c r="A236" s="35" t="s">
         <v>258</v>
       </c>
@@ -11240,7 +11241,7 @@
       </c>
       <c r="N236" s="37"/>
     </row>
-    <row r="237" spans="1:17">
+    <row r="237" spans="1:17" hidden="1">
       <c r="A237" s="35" t="s">
         <v>258</v>
       </c>
@@ -11270,7 +11271,7 @@
       </c>
       <c r="N237" s="37"/>
     </row>
-    <row r="238" spans="1:17">
+    <row r="238" spans="1:17" hidden="1">
       <c r="A238" s="35" t="s">
         <v>258</v>
       </c>
@@ -11300,7 +11301,7 @@
       </c>
       <c r="N238" s="37"/>
     </row>
-    <row r="239" spans="1:17">
+    <row r="239" spans="1:17" hidden="1">
       <c r="A239" s="35" t="s">
         <v>258</v>
       </c>
@@ -11330,7 +11331,7 @@
       </c>
       <c r="N239" s="37"/>
     </row>
-    <row r="240" spans="1:17">
+    <row r="240" spans="1:17" hidden="1">
       <c r="A240" s="35" t="s">
         <v>258</v>
       </c>
@@ -11360,7 +11361,7 @@
       </c>
       <c r="N240" s="37"/>
     </row>
-    <row r="241" spans="1:17">
+    <row r="241" spans="1:17" hidden="1">
       <c r="A241" s="35" t="s">
         <v>258</v>
       </c>
@@ -11389,7 +11390,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="242" spans="1:17">
+    <row r="242" spans="1:17" hidden="1">
       <c r="A242" s="35" t="s">
         <v>258</v>
       </c>
@@ -11581,7 +11582,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="248" spans="1:17">
+    <row r="248" spans="1:17" hidden="1">
       <c r="A248" s="35" t="s">
         <v>258</v>
       </c>
@@ -11610,7 +11611,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="249" spans="1:17">
+    <row r="249" spans="1:17" hidden="1">
       <c r="A249" s="35" t="s">
         <v>258</v>
       </c>
@@ -11639,7 +11640,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="250" spans="1:17">
+    <row r="250" spans="1:17" hidden="1">
       <c r="A250" s="35" t="s">
         <v>258</v>
       </c>
@@ -11668,7 +11669,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="251" spans="1:17">
+    <row r="251" spans="1:17" hidden="1">
       <c r="A251" s="35" t="s">
         <v>258</v>
       </c>
@@ -11697,7 +11698,7 @@
         <v>1.2000000000000002</v>
       </c>
     </row>
-    <row r="252" spans="1:17">
+    <row r="252" spans="1:17" hidden="1">
       <c r="A252" s="35" t="s">
         <v>258</v>
       </c>
@@ -11726,7 +11727,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="253" spans="1:17">
+    <row r="253" spans="1:17" hidden="1">
       <c r="A253" s="35" t="s">
         <v>258</v>
       </c>
@@ -11755,7 +11756,7 @@
         <v>0.85000000000000009</v>
       </c>
     </row>
-    <row r="254" spans="1:17">
+    <row r="254" spans="1:17" hidden="1">
       <c r="A254" s="35" t="s">
         <v>258</v>
       </c>
@@ -11784,7 +11785,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="255" spans="1:17">
+    <row r="255" spans="1:17" hidden="1">
       <c r="A255" s="35" t="s">
         <v>258</v>
       </c>
@@ -11813,7 +11814,7 @@
         <v>1.7000000000000002</v>
       </c>
     </row>
-    <row r="256" spans="1:17">
+    <row r="256" spans="1:17" hidden="1">
       <c r="A256" s="35" t="s">
         <v>258</v>
       </c>
@@ -11842,7 +11843,7 @@
         <v>1.4000000000000001</v>
       </c>
     </row>
-    <row r="257" spans="1:14">
+    <row r="257" spans="1:14" hidden="1">
       <c r="A257" s="35" t="s">
         <v>258</v>
       </c>
@@ -11871,7 +11872,7 @@
         <v>1.7000000000000002</v>
       </c>
     </row>
-    <row r="258" spans="1:14">
+    <row r="258" spans="1:14" hidden="1">
       <c r="A258" s="35" t="s">
         <v>258</v>
       </c>
@@ -11900,7 +11901,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="259" spans="1:14">
+    <row r="259" spans="1:14" hidden="1">
       <c r="A259" s="35" t="s">
         <v>258</v>
       </c>
@@ -11929,7 +11930,7 @@
         <v>1.4000000000000001</v>
       </c>
     </row>
-    <row r="260" spans="1:14">
+    <row r="260" spans="1:14" hidden="1">
       <c r="A260" s="35" t="s">
         <v>258</v>
       </c>
@@ -11959,7 +11960,7 @@
       </c>
       <c r="N260" s="37"/>
     </row>
-    <row r="261" spans="1:14">
+    <row r="261" spans="1:14" hidden="1">
       <c r="A261" s="35" t="s">
         <v>258</v>
       </c>
@@ -11989,7 +11990,7 @@
       </c>
       <c r="N261" s="37"/>
     </row>
-    <row r="262" spans="1:14">
+    <row r="262" spans="1:14" hidden="1">
       <c r="A262" s="35" t="s">
         <v>258</v>
       </c>
@@ -12019,7 +12020,7 @@
       </c>
       <c r="N262" s="37"/>
     </row>
-    <row r="263" spans="1:14">
+    <row r="263" spans="1:14" hidden="1">
       <c r="A263" s="35" t="s">
         <v>258</v>
       </c>
@@ -12049,7 +12050,7 @@
       </c>
       <c r="N263" s="37"/>
     </row>
-    <row r="264" spans="1:14">
+    <row r="264" spans="1:14" hidden="1">
       <c r="A264" s="35" t="s">
         <v>258</v>
       </c>
@@ -12079,7 +12080,7 @@
       </c>
       <c r="N264" s="37"/>
     </row>
-    <row r="265" spans="1:14">
+    <row r="265" spans="1:14" hidden="1">
       <c r="A265" s="35" t="s">
         <v>258</v>
       </c>
@@ -12109,7 +12110,7 @@
       </c>
       <c r="N265" s="37"/>
     </row>
-    <row r="266" spans="1:14">
+    <row r="266" spans="1:14" hidden="1">
       <c r="A266" s="35" t="s">
         <v>258</v>
       </c>
@@ -12143,7 +12144,7 @@
       </c>
       <c r="N266" s="37"/>
     </row>
-    <row r="267" spans="1:14">
+    <row r="267" spans="1:14" hidden="1">
       <c r="A267" s="35" t="s">
         <v>258</v>
       </c>
@@ -12177,7 +12178,7 @@
       </c>
       <c r="N267" s="37"/>
     </row>
-    <row r="268" spans="1:14">
+    <row r="268" spans="1:14" hidden="1">
       <c r="A268" s="35" t="s">
         <v>258</v>
       </c>
@@ -12211,7 +12212,7 @@
       </c>
       <c r="N268" s="37"/>
     </row>
-    <row r="269" spans="1:14">
+    <row r="269" spans="1:14" hidden="1">
       <c r="A269" s="35" t="s">
         <v>258</v>
       </c>
@@ -12240,7 +12241,7 @@
         <v>1.2000000000000002</v>
       </c>
     </row>
-    <row r="270" spans="1:14">
+    <row r="270" spans="1:14" hidden="1">
       <c r="A270" s="35" t="s">
         <v>259</v>
       </c>
@@ -12269,7 +12270,7 @@
         <v>2.4000000000000004</v>
       </c>
     </row>
-    <row r="271" spans="1:14">
+    <row r="271" spans="1:14" hidden="1">
       <c r="A271" s="35" t="s">
         <v>259</v>
       </c>
@@ -12298,7 +12299,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="272" spans="1:14">
+    <row r="272" spans="1:14" hidden="1">
       <c r="A272" s="35" t="s">
         <v>258</v>
       </c>
@@ -12327,7 +12328,7 @@
         <v>2.3000000000000003</v>
       </c>
     </row>
-    <row r="273" spans="1:13">
+    <row r="273" spans="1:13" hidden="1">
       <c r="A273" s="35" t="s">
         <v>258</v>
       </c>
@@ -12356,7 +12357,7 @@
         <v>2.25</v>
       </c>
     </row>
-    <row r="274" spans="1:13">
+    <row r="274" spans="1:13" hidden="1">
       <c r="A274" s="35" t="s">
         <v>258</v>
       </c>
@@ -12385,7 +12386,7 @@
         <v>2.25</v>
       </c>
     </row>
-    <row r="275" spans="1:13">
+    <row r="275" spans="1:13" hidden="1">
       <c r="A275" s="35" t="s">
         <v>258</v>
       </c>
@@ -12414,7 +12415,7 @@
         <v>2.8000000000000003</v>
       </c>
     </row>
-    <row r="276" spans="1:13">
+    <row r="276" spans="1:13" hidden="1">
       <c r="A276" s="35" t="s">
         <v>258</v>
       </c>
@@ -12443,7 +12444,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="277" spans="1:13">
+    <row r="277" spans="1:13" hidden="1">
       <c r="A277" s="35" t="s">
         <v>258</v>
       </c>
@@ -12472,7 +12473,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="278" spans="1:13">
+    <row r="278" spans="1:13" hidden="1">
       <c r="A278" s="35" t="s">
         <v>258</v>
       </c>
@@ -12501,7 +12502,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="279" spans="1:13">
+    <row r="279" spans="1:13" hidden="1">
       <c r="A279" s="35" t="s">
         <v>258</v>
       </c>
@@ -12530,7 +12531,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="280" spans="1:13">
+    <row r="280" spans="1:13" hidden="1">
       <c r="A280" s="35" t="s">
         <v>258</v>
       </c>
@@ -12559,7 +12560,7 @@
         <v>1.4000000000000001</v>
       </c>
     </row>
-    <row r="281" spans="1:13">
+    <row r="281" spans="1:13" hidden="1">
       <c r="A281" s="35" t="s">
         <v>258</v>
       </c>
@@ -12588,7 +12589,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="282" spans="1:13">
+    <row r="282" spans="1:13" hidden="1">
       <c r="A282" s="35" t="s">
         <v>258</v>
       </c>
@@ -12617,7 +12618,7 @@
         <v>1.9000000000000001</v>
       </c>
     </row>
-    <row r="283" spans="1:13">
+    <row r="283" spans="1:13" hidden="1">
       <c r="A283" s="35" t="s">
         <v>258</v>
       </c>
@@ -12646,7 +12647,7 @@
         <v>1.05</v>
       </c>
     </row>
-    <row r="284" spans="1:13">
+    <row r="284" spans="1:13" hidden="1">
       <c r="A284" s="35" t="s">
         <v>258</v>
       </c>
@@ -12675,7 +12676,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="285" spans="1:13">
+    <row r="285" spans="1:13" hidden="1">
       <c r="A285" s="35" t="s">
         <v>258</v>
       </c>
@@ -12704,7 +12705,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="286" spans="1:13">
+    <row r="286" spans="1:13" hidden="1">
       <c r="A286" s="35" t="s">
         <v>258</v>
       </c>
@@ -12733,7 +12734,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="287" spans="1:13">
+    <row r="287" spans="1:13" hidden="1">
       <c r="A287" s="35" t="s">
         <v>258</v>
       </c>
@@ -12762,7 +12763,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="288" spans="1:13">
+    <row r="288" spans="1:13" hidden="1">
       <c r="A288" s="35" t="s">
         <v>258</v>
       </c>
@@ -12791,7 +12792,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="289" spans="1:13">
+    <row r="289" spans="1:13" hidden="1">
       <c r="A289" s="35" t="s">
         <v>258</v>
       </c>
@@ -12820,7 +12821,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="290" spans="1:13">
+    <row r="290" spans="1:13" hidden="1">
       <c r="A290" s="35" t="s">
         <v>258</v>
       </c>
@@ -12849,7 +12850,7 @@
         <v>6.7</v>
       </c>
     </row>
-    <row r="291" spans="1:13">
+    <row r="291" spans="1:13" hidden="1">
       <c r="A291" s="35" t="s">
         <v>258</v>
       </c>
@@ -12878,7 +12879,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="292" spans="1:13">
+    <row r="292" spans="1:13" hidden="1">
       <c r="A292" s="35" t="s">
         <v>258</v>
       </c>
@@ -12907,7 +12908,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="293" spans="1:13">
+    <row r="293" spans="1:13" hidden="1">
       <c r="A293" s="35" t="s">
         <v>258</v>
       </c>
@@ -12936,7 +12937,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="294" spans="1:13">
+    <row r="294" spans="1:13" hidden="1">
       <c r="A294" s="35" t="s">
         <v>258</v>
       </c>
@@ -12965,7 +12966,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="295" spans="1:13">
+    <row r="295" spans="1:13" hidden="1">
       <c r="A295" s="35" t="s">
         <v>258</v>
       </c>
@@ -12994,7 +12995,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="296" spans="1:13">
+    <row r="296" spans="1:13" hidden="1">
       <c r="A296" s="35" t="s">
         <v>258</v>
       </c>
@@ -13023,7 +13024,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="297" spans="1:13">
+    <row r="297" spans="1:13" hidden="1">
       <c r="A297" s="35" t="s">
         <v>258</v>
       </c>
@@ -13052,7 +13053,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="298" spans="1:13">
+    <row r="298" spans="1:13" hidden="1">
       <c r="A298" s="35" t="s">
         <v>258</v>
       </c>
@@ -13081,7 +13082,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="299" spans="1:13">
+    <row r="299" spans="1:13" hidden="1">
       <c r="A299" s="35" t="s">
         <v>258</v>
       </c>
@@ -13110,7 +13111,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="300" spans="1:13">
+    <row r="300" spans="1:13" hidden="1">
       <c r="A300" s="35" t="s">
         <v>258</v>
       </c>
@@ -13139,7 +13140,7 @@
         <v>2.9000000000000004</v>
       </c>
     </row>
-    <row r="301" spans="1:13">
+    <row r="301" spans="1:13" hidden="1">
       <c r="A301" s="35" t="s">
         <v>258</v>
       </c>
@@ -13168,7 +13169,7 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="302" spans="1:13">
+    <row r="302" spans="1:13" hidden="1">
       <c r="A302" s="35" t="s">
         <v>258</v>
       </c>
@@ -13197,7 +13198,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="303" spans="1:13">
+    <row r="303" spans="1:13" hidden="1">
       <c r="A303" s="35" t="s">
         <v>258</v>
       </c>
@@ -13226,7 +13227,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="304" spans="1:13">
+    <row r="304" spans="1:13" hidden="1">
       <c r="A304" s="35" t="s">
         <v>258</v>
       </c>
@@ -13255,7 +13256,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="305" spans="1:13">
+    <row r="305" spans="1:13" hidden="1">
       <c r="A305" s="35" t="s">
         <v>258</v>
       </c>
@@ -13284,7 +13285,7 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="306" spans="1:13">
+    <row r="306" spans="1:13" hidden="1">
       <c r="A306" s="35" t="s">
         <v>258</v>
       </c>
@@ -13313,7 +13314,7 @@
         <v>2.9000000000000004</v>
       </c>
     </row>
-    <row r="307" spans="1:13">
+    <row r="307" spans="1:13" hidden="1">
       <c r="A307" s="35" t="s">
         <v>258</v>
       </c>
@@ -13342,7 +13343,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="308" spans="1:13">
+    <row r="308" spans="1:13" hidden="1">
       <c r="A308" s="35" t="s">
         <v>258</v>
       </c>
@@ -13371,7 +13372,7 @@
         <v>3.3000000000000003</v>
       </c>
     </row>
-    <row r="309" spans="1:13">
+    <row r="309" spans="1:13" hidden="1">
       <c r="A309" s="35" t="s">
         <v>258</v>
       </c>
@@ -13400,7 +13401,7 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="310" spans="1:13">
+    <row r="310" spans="1:13" hidden="1">
       <c r="A310" s="35" t="s">
         <v>258</v>
       </c>
@@ -13429,7 +13430,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="311" spans="1:13">
+    <row r="311" spans="1:13" hidden="1">
       <c r="A311" s="35" t="s">
         <v>258</v>
       </c>
@@ -13458,7 +13459,7 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="312" spans="1:13">
+    <row r="312" spans="1:13" hidden="1">
       <c r="A312" s="35" t="s">
         <v>258</v>
       </c>
@@ -13487,7 +13488,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="313" spans="1:13">
+    <row r="313" spans="1:13" hidden="1">
       <c r="A313" s="35" t="s">
         <v>258</v>
       </c>
@@ -13516,7 +13517,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="314" spans="1:13">
+    <row r="314" spans="1:13" hidden="1">
       <c r="A314" s="35" t="s">
         <v>258</v>
       </c>
@@ -13545,7 +13546,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="315" spans="1:13">
+    <row r="315" spans="1:13" hidden="1">
       <c r="A315" s="35" t="s">
         <v>258</v>
       </c>
@@ -13574,7 +13575,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="316" spans="1:13">
+    <row r="316" spans="1:13" hidden="1">
       <c r="A316" s="35" t="s">
         <v>258</v>
       </c>
@@ -13603,7 +13604,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="317" spans="1:13">
+    <row r="317" spans="1:13" hidden="1">
       <c r="A317" s="35" t="s">
         <v>258</v>
       </c>
@@ -13632,7 +13633,7 @@
         <v>2.8000000000000003</v>
       </c>
     </row>
-    <row r="318" spans="1:13">
+    <row r="318" spans="1:13" hidden="1">
       <c r="A318" s="35" t="s">
         <v>258</v>
       </c>
@@ -13661,7 +13662,7 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="319" spans="1:13">
+    <row r="319" spans="1:13" hidden="1">
       <c r="A319" s="35" t="s">
         <v>258</v>
       </c>
@@ -13690,7 +13691,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="320" spans="1:13">
+    <row r="320" spans="1:13" hidden="1">
       <c r="A320" s="35" t="s">
         <v>258</v>
       </c>
@@ -13719,7 +13720,7 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="321" spans="1:17">
+    <row r="321" spans="1:17" hidden="1">
       <c r="A321" s="35" t="s">
         <v>258</v>
       </c>
@@ -13748,7 +13749,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="322" spans="1:17">
+    <row r="322" spans="1:17" hidden="1">
       <c r="A322" s="35" t="s">
         <v>258</v>
       </c>
@@ -13777,7 +13778,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="323" spans="1:17">
+    <row r="323" spans="1:17" hidden="1">
       <c r="A323" s="35" t="s">
         <v>258</v>
       </c>
@@ -13806,7 +13807,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="324" spans="1:17">
+    <row r="324" spans="1:17" hidden="1">
       <c r="A324" s="35" t="s">
         <v>258</v>
       </c>
@@ -13836,7 +13837,7 @@
       </c>
       <c r="Q324" s="37"/>
     </row>
-    <row r="325" spans="1:17">
+    <row r="325" spans="1:17" hidden="1">
       <c r="A325" s="35" t="s">
         <v>258</v>
       </c>
@@ -13866,7 +13867,7 @@
       </c>
       <c r="Q325" s="37"/>
     </row>
-    <row r="326" spans="1:17">
+    <row r="326" spans="1:17" hidden="1">
       <c r="A326" s="35" t="s">
         <v>258</v>
       </c>
@@ -13895,7 +13896,7 @@
         <v>3.8000000000000003</v>
       </c>
     </row>
-    <row r="327" spans="1:17">
+    <row r="327" spans="1:17" hidden="1">
       <c r="A327" s="35" t="s">
         <v>258</v>
       </c>
@@ -13924,7 +13925,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="328" spans="1:17">
+    <row r="328" spans="1:17" hidden="1">
       <c r="A328" s="35" t="s">
         <v>258</v>
       </c>
@@ -13953,7 +13954,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="329" spans="1:17">
+    <row r="329" spans="1:17" hidden="1">
       <c r="A329" s="35" t="s">
         <v>258</v>
       </c>
@@ -13982,7 +13983,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="330" spans="1:17">
+    <row r="330" spans="1:17" hidden="1">
       <c r="A330" s="35" t="s">
         <v>258</v>
       </c>
@@ -14011,7 +14012,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="331" spans="1:17">
+    <row r="331" spans="1:17" hidden="1">
       <c r="A331" s="35" t="s">
         <v>258</v>
       </c>
@@ -14040,7 +14041,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="332" spans="1:17">
+    <row r="332" spans="1:17" hidden="1">
       <c r="A332" s="35" t="s">
         <v>258</v>
       </c>
@@ -14069,7 +14070,7 @@
         <v>2.3000000000000003</v>
       </c>
     </row>
-    <row r="333" spans="1:17">
+    <row r="333" spans="1:17" hidden="1">
       <c r="A333" s="35" t="s">
         <v>258</v>
       </c>
@@ -14098,7 +14099,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="334" spans="1:17">
+    <row r="334" spans="1:17" hidden="1">
       <c r="A334" s="35" t="s">
         <v>258</v>
       </c>
@@ -14127,7 +14128,7 @@
         <v>3.3000000000000003</v>
       </c>
     </row>
-    <row r="335" spans="1:17">
+    <row r="335" spans="1:17" hidden="1">
       <c r="A335" s="35" t="s">
         <v>258</v>
       </c>
@@ -14156,7 +14157,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="336" spans="1:17">
+    <row r="336" spans="1:17" hidden="1">
       <c r="A336" s="35" t="s">
         <v>258</v>
       </c>
@@ -14185,7 +14186,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="337" spans="1:17">
+    <row r="337" spans="1:17" hidden="1">
       <c r="A337" s="35" t="s">
         <v>258</v>
       </c>
@@ -14215,7 +14216,7 @@
       </c>
       <c r="Q337" s="37"/>
     </row>
-    <row r="338" spans="1:17">
+    <row r="338" spans="1:17" hidden="1">
       <c r="A338" s="35" t="s">
         <v>258</v>
       </c>
@@ -14244,7 +14245,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="339" spans="1:17">
+    <row r="339" spans="1:17" hidden="1">
       <c r="A339" s="35" t="s">
         <v>258</v>
       </c>
@@ -14273,7 +14274,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="340" spans="1:17">
+    <row r="340" spans="1:17" hidden="1">
       <c r="A340" s="35" t="s">
         <v>258</v>
       </c>
@@ -14302,7 +14303,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="341" spans="1:17">
+    <row r="341" spans="1:17" hidden="1">
       <c r="A341" s="35" t="s">
         <v>258</v>
       </c>
@@ -14331,7 +14332,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="342" spans="1:17">
+    <row r="342" spans="1:17" hidden="1">
       <c r="A342" s="35" t="s">
         <v>258</v>
       </c>
@@ -14360,7 +14361,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="343" spans="1:17">
+    <row r="343" spans="1:17" hidden="1">
       <c r="A343" s="35" t="s">
         <v>258</v>
       </c>
@@ -14389,7 +14390,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="344" spans="1:17">
+    <row r="344" spans="1:17" hidden="1">
       <c r="A344" s="35" t="s">
         <v>258</v>
       </c>
@@ -14418,7 +14419,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="345" spans="1:17">
+    <row r="345" spans="1:17" hidden="1">
       <c r="A345" s="35" t="s">
         <v>258</v>
       </c>
@@ -14447,7 +14448,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="346" spans="1:17">
+    <row r="346" spans="1:17" hidden="1">
       <c r="A346" s="35" t="s">
         <v>258</v>
       </c>
@@ -14476,7 +14477,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="347" spans="1:17">
+    <row r="347" spans="1:17" hidden="1">
       <c r="A347" s="35" t="s">
         <v>258</v>
       </c>
@@ -14505,7 +14506,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="348" spans="1:17">
+    <row r="348" spans="1:17" hidden="1">
       <c r="A348" s="35" t="s">
         <v>258</v>
       </c>
@@ -14534,7 +14535,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="349" spans="1:17">
+    <row r="349" spans="1:17" hidden="1">
       <c r="A349" s="35" t="s">
         <v>258</v>
       </c>
@@ -14563,7 +14564,7 @@
         <v>1.2000000000000002</v>
       </c>
     </row>
-    <row r="350" spans="1:17">
+    <row r="350" spans="1:17" hidden="1">
       <c r="A350" s="35" t="s">
         <v>258</v>
       </c>
@@ -14592,7 +14593,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="351" spans="1:17">
+    <row r="351" spans="1:17" hidden="1">
       <c r="A351" s="35" t="s">
         <v>258</v>
       </c>
@@ -14621,7 +14622,7 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="352" spans="1:17">
+    <row r="352" spans="1:17" hidden="1">
       <c r="A352" s="35" t="s">
         <v>258</v>
       </c>
@@ -14650,7 +14651,7 @@
         <v>1.4000000000000001</v>
       </c>
     </row>
-    <row r="353" spans="1:14">
+    <row r="353" spans="1:14" hidden="1">
       <c r="A353" s="35" t="s">
         <v>258</v>
       </c>
@@ -14679,7 +14680,7 @@
         <v>1.4000000000000001</v>
       </c>
     </row>
-    <row r="354" spans="1:14">
+    <row r="354" spans="1:14" hidden="1">
       <c r="A354" s="35" t="s">
         <v>258</v>
       </c>
@@ -14708,7 +14709,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="355" spans="1:14">
+    <row r="355" spans="1:14" hidden="1">
       <c r="A355" s="35" t="s">
         <v>258</v>
       </c>
@@ -14737,7 +14738,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="356" spans="1:14">
+    <row r="356" spans="1:14" hidden="1">
       <c r="A356" s="35" t="s">
         <v>258</v>
       </c>
@@ -14766,7 +14767,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="357" spans="1:14">
+    <row r="357" spans="1:14" hidden="1">
       <c r="A357" s="35" t="s">
         <v>258</v>
       </c>
@@ -14795,7 +14796,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="358" spans="1:14">
+    <row r="358" spans="1:14" hidden="1">
       <c r="A358" s="35" t="s">
         <v>258</v>
       </c>
@@ -14824,7 +14825,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="359" spans="1:14">
+    <row r="359" spans="1:14" hidden="1">
       <c r="A359" s="35" t="s">
         <v>258</v>
       </c>
@@ -14853,7 +14854,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="360" spans="1:14">
+    <row r="360" spans="1:14" hidden="1">
       <c r="A360" s="35" t="s">
         <v>258</v>
       </c>
@@ -14882,7 +14883,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="361" spans="1:14">
+    <row r="361" spans="1:14" hidden="1">
       <c r="A361" s="35" t="s">
         <v>258</v>
       </c>
@@ -14911,7 +14912,7 @@
         <v>1.2000000000000002</v>
       </c>
     </row>
-    <row r="362" spans="1:14">
+    <row r="362" spans="1:14" hidden="1">
       <c r="A362" s="35" t="s">
         <v>258</v>
       </c>
@@ -14941,7 +14942,7 @@
       </c>
       <c r="N362" s="37"/>
     </row>
-    <row r="363" spans="1:14">
+    <row r="363" spans="1:14" hidden="1">
       <c r="A363" s="35" t="s">
         <v>258</v>
       </c>
@@ -14971,7 +14972,7 @@
       </c>
       <c r="N363" s="37"/>
     </row>
-    <row r="364" spans="1:14">
+    <row r="364" spans="1:14" hidden="1">
       <c r="A364" s="35" t="s">
         <v>258</v>
       </c>
@@ -15001,7 +15002,7 @@
       </c>
       <c r="N364" s="37"/>
     </row>
-    <row r="365" spans="1:14">
+    <row r="365" spans="1:14" hidden="1">
       <c r="A365" s="35" t="s">
         <v>258</v>
       </c>
@@ -15031,7 +15032,7 @@
       </c>
       <c r="N365" s="37"/>
     </row>
-    <row r="366" spans="1:14">
+    <row r="366" spans="1:14" hidden="1">
       <c r="A366" s="35" t="s">
         <v>258</v>
       </c>
@@ -15061,7 +15062,7 @@
       </c>
       <c r="N366" s="37"/>
     </row>
-    <row r="367" spans="1:14">
+    <row r="367" spans="1:14" hidden="1">
       <c r="A367" s="35" t="s">
         <v>258</v>
       </c>
@@ -15091,7 +15092,7 @@
       </c>
       <c r="N367" s="37"/>
     </row>
-    <row r="368" spans="1:14">
+    <row r="368" spans="1:14" hidden="1">
       <c r="A368" s="35" t="s">
         <v>258</v>
       </c>
@@ -15121,7 +15122,7 @@
       </c>
       <c r="N368" s="37"/>
     </row>
-    <row r="369" spans="1:14">
+    <row r="369" spans="1:14" hidden="1">
       <c r="A369" s="35" t="s">
         <v>258</v>
       </c>
@@ -15151,7 +15152,7 @@
       </c>
       <c r="N369" s="37"/>
     </row>
-    <row r="370" spans="1:14">
+    <row r="370" spans="1:14" hidden="1">
       <c r="A370" s="35" t="s">
         <v>258</v>
       </c>
@@ -15181,7 +15182,7 @@
       </c>
       <c r="N370" s="37"/>
     </row>
-    <row r="371" spans="1:14">
+    <row r="371" spans="1:14" hidden="1">
       <c r="A371" s="35" t="s">
         <v>258</v>
       </c>
@@ -15211,7 +15212,7 @@
       </c>
       <c r="N371" s="37"/>
     </row>
-    <row r="372" spans="1:14">
+    <row r="372" spans="1:14" hidden="1">
       <c r="A372" s="35" t="s">
         <v>258</v>
       </c>
@@ -15241,7 +15242,7 @@
       </c>
       <c r="N372" s="37"/>
     </row>
-    <row r="373" spans="1:14">
+    <row r="373" spans="1:14" hidden="1">
       <c r="A373" s="35" t="s">
         <v>258</v>
       </c>
@@ -15271,7 +15272,7 @@
       </c>
       <c r="N373" s="37"/>
     </row>
-    <row r="374" spans="1:14">
+    <row r="374" spans="1:14" hidden="1">
       <c r="A374" s="35" t="s">
         <v>258</v>
       </c>
@@ -15301,7 +15302,7 @@
       </c>
       <c r="N374" s="37"/>
     </row>
-    <row r="375" spans="1:14">
+    <row r="375" spans="1:14" hidden="1">
       <c r="A375" s="35" t="s">
         <v>258</v>
       </c>
@@ -15331,7 +15332,7 @@
       </c>
       <c r="N375" s="37"/>
     </row>
-    <row r="376" spans="1:14">
+    <row r="376" spans="1:14" hidden="1">
       <c r="A376" s="35" t="s">
         <v>258</v>
       </c>
@@ -15360,7 +15361,7 @@
         <v>1.9000000000000001</v>
       </c>
     </row>
-    <row r="377" spans="1:14">
+    <row r="377" spans="1:14" hidden="1">
       <c r="A377" s="35" t="s">
         <v>258</v>
       </c>
@@ -15389,7 +15390,7 @@
         <v>1.75</v>
       </c>
     </row>
-    <row r="378" spans="1:14">
+    <row r="378" spans="1:14" hidden="1">
       <c r="A378" s="35" t="s">
         <v>258</v>
       </c>
@@ -15418,7 +15419,7 @@
         <v>1.75</v>
       </c>
     </row>
-    <row r="379" spans="1:14">
+    <row r="379" spans="1:14" hidden="1">
       <c r="A379" s="35" t="s">
         <v>258</v>
       </c>
@@ -15447,7 +15448,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="380" spans="1:14">
+    <row r="380" spans="1:14" hidden="1">
       <c r="A380" s="35" t="s">
         <v>258</v>
       </c>
@@ -15476,7 +15477,7 @@
         <v>1.2000000000000002</v>
       </c>
     </row>
-    <row r="381" spans="1:14">
+    <row r="381" spans="1:14" hidden="1">
       <c r="A381" s="35" t="s">
         <v>258</v>
       </c>
@@ -15505,7 +15506,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="382" spans="1:14">
+    <row r="382" spans="1:14" hidden="1">
       <c r="A382" s="35" t="s">
         <v>258</v>
       </c>
@@ -15534,7 +15535,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="383" spans="1:14">
+    <row r="383" spans="1:14" hidden="1">
       <c r="A383" s="35" t="s">
         <v>258</v>
       </c>
@@ -15563,7 +15564,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="384" spans="1:14">
+    <row r="384" spans="1:14" hidden="1">
       <c r="A384" s="35" t="s">
         <v>258</v>
       </c>
@@ -15592,7 +15593,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="385" spans="1:14">
+    <row r="385" spans="1:14" hidden="1">
       <c r="A385" s="35" t="s">
         <v>258</v>
       </c>
@@ -15621,7 +15622,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="386" spans="1:14">
+    <row r="386" spans="1:14" hidden="1">
       <c r="A386" s="35" t="s">
         <v>258</v>
       </c>
@@ -15650,7 +15651,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="387" spans="1:14">
+    <row r="387" spans="1:14" hidden="1">
       <c r="A387" s="35" t="s">
         <v>258</v>
       </c>
@@ -15679,7 +15680,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="388" spans="1:14">
+    <row r="388" spans="1:14" hidden="1">
       <c r="A388" s="35" t="s">
         <v>258</v>
       </c>
@@ -15708,7 +15709,7 @@
         <v>2.4000000000000004</v>
       </c>
     </row>
-    <row r="389" spans="1:14">
+    <row r="389" spans="1:14" hidden="1">
       <c r="A389" s="35" t="s">
         <v>258</v>
       </c>
@@ -15738,7 +15739,7 @@
       </c>
       <c r="N389" s="37"/>
     </row>
-    <row r="390" spans="1:14">
+    <row r="390" spans="1:14" hidden="1">
       <c r="A390" s="35" t="s">
         <v>258</v>
       </c>
@@ -15768,7 +15769,7 @@
       </c>
       <c r="N390" s="37"/>
     </row>
-    <row r="391" spans="1:14">
+    <row r="391" spans="1:14" hidden="1">
       <c r="A391" s="35" t="s">
         <v>258</v>
       </c>
@@ -15798,7 +15799,7 @@
       </c>
       <c r="N391" s="37"/>
     </row>
-    <row r="392" spans="1:14">
+    <row r="392" spans="1:14" hidden="1">
       <c r="A392" s="35" t="s">
         <v>258</v>
       </c>
@@ -15828,7 +15829,7 @@
       </c>
       <c r="N392" s="37"/>
     </row>
-    <row r="393" spans="1:14">
+    <row r="393" spans="1:14" hidden="1">
       <c r="A393" s="35" t="s">
         <v>258</v>
       </c>
@@ -15858,7 +15859,7 @@
       </c>
       <c r="N393" s="37"/>
     </row>
-    <row r="394" spans="1:14">
+    <row r="394" spans="1:14" hidden="1">
       <c r="A394" s="35" t="s">
         <v>258</v>
       </c>
@@ -15888,7 +15889,7 @@
       </c>
       <c r="N394" s="37"/>
     </row>
-    <row r="395" spans="1:14">
+    <row r="395" spans="1:14" hidden="1">
       <c r="A395" s="35" t="s">
         <v>258</v>
       </c>
@@ -15918,7 +15919,7 @@
       </c>
       <c r="N395" s="37"/>
     </row>
-    <row r="396" spans="1:14">
+    <row r="396" spans="1:14" hidden="1">
       <c r="A396" s="35" t="s">
         <v>258</v>
       </c>
@@ -15948,7 +15949,7 @@
       </c>
       <c r="N396" s="37"/>
     </row>
-    <row r="397" spans="1:14">
+    <row r="397" spans="1:14" hidden="1">
       <c r="A397" s="35" t="s">
         <v>258</v>
       </c>
@@ -15978,7 +15979,7 @@
       </c>
       <c r="N397" s="37"/>
     </row>
-    <row r="398" spans="1:14">
+    <row r="398" spans="1:14" hidden="1">
       <c r="A398" s="35" t="s">
         <v>258</v>
       </c>
@@ -16007,7 +16008,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="399" spans="1:14">
+    <row r="399" spans="1:14" hidden="1">
       <c r="A399" s="35" t="s">
         <v>258</v>
       </c>
@@ -16036,7 +16037,7 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="400" spans="1:14">
+    <row r="400" spans="1:14" hidden="1">
       <c r="A400" s="35" t="s">
         <v>258</v>
       </c>
@@ -16065,7 +16066,7 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="401" spans="1:17">
+    <row r="401" spans="1:17" hidden="1">
       <c r="A401" s="35" t="s">
         <v>258</v>
       </c>
@@ -16094,7 +16095,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="402" spans="1:17">
+    <row r="402" spans="1:17" hidden="1">
       <c r="A402" s="35" t="s">
         <v>258</v>
       </c>
@@ -16123,7 +16124,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="403" spans="1:17">
+    <row r="403" spans="1:17" hidden="1">
       <c r="A403" s="35" t="s">
         <v>258</v>
       </c>
@@ -16152,7 +16153,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="404" spans="1:17">
+    <row r="404" spans="1:17" hidden="1">
       <c r="A404" s="35" t="s">
         <v>258</v>
       </c>
@@ -16184,7 +16185,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="405" spans="1:17">
+    <row r="405" spans="1:17" hidden="1">
       <c r="A405" s="35" t="s">
         <v>258</v>
       </c>
@@ -16216,7 +16217,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="406" spans="1:17">
+    <row r="406" spans="1:17" hidden="1">
       <c r="A406" s="35" t="s">
         <v>258</v>
       </c>
@@ -16248,7 +16249,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="407" spans="1:17">
+    <row r="407" spans="1:17" hidden="1">
       <c r="A407" s="35" t="s">
         <v>258</v>
       </c>
@@ -16280,7 +16281,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="408" spans="1:17">
+    <row r="408" spans="1:17" hidden="1">
       <c r="A408" s="35" t="s">
         <v>258</v>
       </c>
@@ -16312,7 +16313,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="409" spans="1:17">
+    <row r="409" spans="1:17" hidden="1">
       <c r="A409" s="35" t="s">
         <v>258</v>
       </c>
@@ -16344,7 +16345,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="410" spans="1:17">
+    <row r="410" spans="1:17" hidden="1">
       <c r="A410" s="35" t="s">
         <v>258</v>
       </c>
@@ -16376,7 +16377,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="411" spans="1:17">
+    <row r="411" spans="1:17" hidden="1">
       <c r="A411" s="35" t="s">
         <v>258</v>
       </c>
@@ -16408,7 +16409,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="412" spans="1:17">
+    <row r="412" spans="1:17" hidden="1">
       <c r="A412" s="35" t="s">
         <v>258</v>
       </c>
@@ -16440,7 +16441,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="413" spans="1:17">
+    <row r="413" spans="1:17" hidden="1">
       <c r="A413" s="35" t="s">
         <v>258</v>
       </c>
@@ -16472,7 +16473,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="414" spans="1:17">
+    <row r="414" spans="1:17" hidden="1">
       <c r="A414" s="35" t="s">
         <v>258</v>
       </c>
@@ -16504,7 +16505,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="415" spans="1:17">
+    <row r="415" spans="1:17" hidden="1">
       <c r="A415" s="35" t="s">
         <v>258</v>
       </c>
@@ -16536,7 +16537,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="416" spans="1:17">
+    <row r="416" spans="1:17" hidden="1">
       <c r="A416" s="35" t="s">
         <v>258</v>
       </c>
@@ -16568,7 +16569,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="417" spans="1:17">
+    <row r="417" spans="1:17" hidden="1">
       <c r="A417" s="35" t="s">
         <v>258</v>
       </c>
@@ -16601,7 +16602,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="418" spans="1:17">
+    <row r="418" spans="1:17" hidden="1">
       <c r="A418" s="35" t="s">
         <v>258</v>
       </c>
@@ -16634,7 +16635,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="419" spans="1:17">
+    <row r="419" spans="1:17" hidden="1">
       <c r="A419" s="35" t="s">
         <v>258</v>
       </c>
@@ -16667,7 +16668,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="420" spans="1:17">
+    <row r="420" spans="1:17" hidden="1">
       <c r="A420" s="35" t="s">
         <v>258</v>
       </c>
@@ -16700,7 +16701,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="421" spans="1:17">
+    <row r="421" spans="1:17" hidden="1">
       <c r="A421" s="35" t="s">
         <v>258</v>
       </c>
@@ -16733,7 +16734,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="422" spans="1:17">
+    <row r="422" spans="1:17" hidden="1">
       <c r="A422" s="35" t="s">
         <v>258</v>
       </c>
@@ -16762,7 +16763,7 @@
         <v>0.70000000000000007</v>
       </c>
     </row>
-    <row r="423" spans="1:17">
+    <row r="423" spans="1:17" hidden="1">
       <c r="A423" s="35" t="s">
         <v>258</v>
       </c>
@@ -16792,7 +16793,7 @@
       </c>
       <c r="N423" s="37"/>
     </row>
-    <row r="424" spans="1:17">
+    <row r="424" spans="1:17" hidden="1">
       <c r="A424" s="35" t="s">
         <v>258</v>
       </c>
@@ -16826,7 +16827,7 @@
       </c>
       <c r="N424" s="37"/>
     </row>
-    <row r="425" spans="1:17">
+    <row r="425" spans="1:17" hidden="1">
       <c r="A425" s="35" t="s">
         <v>258</v>
       </c>
@@ -16855,7 +16856,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="426" spans="1:17">
+    <row r="426" spans="1:17" hidden="1">
       <c r="A426" s="35" t="s">
         <v>258</v>
       </c>
@@ -16884,7 +16885,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="427" spans="1:17">
+    <row r="427" spans="1:17" hidden="1">
       <c r="A427" s="35" t="s">
         <v>258</v>
       </c>
@@ -16913,7 +16914,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="428" spans="1:17">
+    <row r="428" spans="1:17" hidden="1">
       <c r="A428" s="35" t="s">
         <v>258</v>
       </c>
@@ -16942,7 +16943,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="429" spans="1:17">
+    <row r="429" spans="1:17" hidden="1">
       <c r="A429" s="35" t="s">
         <v>258</v>
       </c>
@@ -16971,7 +16972,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="430" spans="1:17">
+    <row r="430" spans="1:17" hidden="1">
       <c r="A430" s="35" t="s">
         <v>258</v>
       </c>
@@ -17000,7 +17001,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="431" spans="1:17">
+    <row r="431" spans="1:17" hidden="1">
       <c r="A431" s="35" t="s">
         <v>258</v>
       </c>
@@ -17029,7 +17030,7 @@
         <v>1.2000000000000002</v>
       </c>
     </row>
-    <row r="432" spans="1:17">
+    <row r="432" spans="1:17" hidden="1">
       <c r="A432" s="35" t="s">
         <v>258</v>
       </c>
@@ -17058,7 +17059,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="433" spans="1:17">
+    <row r="433" spans="1:17" hidden="1">
       <c r="A433" s="35" t="s">
         <v>258</v>
       </c>
@@ -17087,7 +17088,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="434" spans="1:17">
+    <row r="434" spans="1:17" hidden="1">
       <c r="A434" s="35" t="s">
         <v>258</v>
       </c>
@@ -17116,7 +17117,7 @@
         <v>1.2000000000000002</v>
       </c>
     </row>
-    <row r="435" spans="1:17">
+    <row r="435" spans="1:17" hidden="1">
       <c r="A435" s="35" t="s">
         <v>258</v>
       </c>
@@ -17145,7 +17146,7 @@
         <v>1.1500000000000001</v>
       </c>
     </row>
-    <row r="436" spans="1:17">
+    <row r="436" spans="1:17" hidden="1">
       <c r="A436" s="35" t="s">
         <v>258</v>
       </c>
@@ -17175,7 +17176,7 @@
       </c>
       <c r="N436" s="37"/>
     </row>
-    <row r="437" spans="1:17">
+    <row r="437" spans="1:17" hidden="1">
       <c r="A437" s="35" t="s">
         <v>258</v>
       </c>
@@ -17205,7 +17206,7 @@
       </c>
       <c r="N437" s="37"/>
     </row>
-    <row r="438" spans="1:17">
+    <row r="438" spans="1:17" hidden="1">
       <c r="A438" s="35" t="s">
         <v>258</v>
       </c>
@@ -17234,7 +17235,7 @@
         <v>2.3000000000000003</v>
       </c>
     </row>
-    <row r="439" spans="1:17">
+    <row r="439" spans="1:17" hidden="1">
       <c r="A439" s="35" t="s">
         <v>258</v>
       </c>
@@ -17263,7 +17264,7 @@
         <v>1.4000000000000001</v>
       </c>
     </row>
-    <row r="440" spans="1:17">
+    <row r="440" spans="1:17" hidden="1">
       <c r="A440" s="35" t="s">
         <v>258</v>
       </c>
@@ -17292,7 +17293,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="441" spans="1:17">
+    <row r="441" spans="1:17" hidden="1">
       <c r="A441" s="35" t="s">
         <v>258</v>
       </c>
@@ -17321,7 +17322,7 @@
         <v>3.8000000000000003</v>
       </c>
     </row>
-    <row r="442" spans="1:17">
+    <row r="442" spans="1:17" hidden="1">
       <c r="A442" s="35" t="s">
         <v>258</v>
       </c>
@@ -17351,7 +17352,7 @@
       </c>
       <c r="Q442" s="37"/>
     </row>
-    <row r="443" spans="1:17">
+    <row r="443" spans="1:17" hidden="1">
       <c r="A443" s="35" t="s">
         <v>258</v>
       </c>
@@ -17380,7 +17381,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="444" spans="1:17">
+    <row r="444" spans="1:17" hidden="1">
       <c r="A444" s="35" t="s">
         <v>258</v>
       </c>
@@ -17409,7 +17410,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="445" spans="1:17">
+    <row r="445" spans="1:17" hidden="1">
       <c r="A445" s="35" t="s">
         <v>258</v>
       </c>
@@ -17439,7 +17440,7 @@
       </c>
       <c r="N445" s="37"/>
     </row>
-    <row r="446" spans="1:17">
+    <row r="446" spans="1:17" hidden="1">
       <c r="A446" s="35" t="s">
         <v>258</v>
       </c>
@@ -17469,7 +17470,7 @@
       </c>
       <c r="N446" s="37"/>
     </row>
-    <row r="447" spans="1:17">
+    <row r="447" spans="1:17" hidden="1">
       <c r="A447" s="35" t="s">
         <v>258</v>
       </c>
@@ -17498,7 +17499,7 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="448" spans="1:17">
+    <row r="448" spans="1:17" hidden="1">
       <c r="A448" s="35" t="s">
         <v>258</v>
       </c>
@@ -17527,7 +17528,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="449" spans="1:17">
+    <row r="449" spans="1:17" hidden="1">
       <c r="A449" s="35" t="s">
         <v>258</v>
       </c>
@@ -17556,7 +17557,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="450" spans="1:17">
+    <row r="450" spans="1:17" hidden="1">
       <c r="A450" s="35" t="s">
         <v>258</v>
       </c>
@@ -17585,7 +17586,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="451" spans="1:17">
+    <row r="451" spans="1:17" hidden="1">
       <c r="A451" s="35" t="s">
         <v>258</v>
       </c>
@@ -17614,7 +17615,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="452" spans="1:17">
+    <row r="452" spans="1:17" hidden="1">
       <c r="A452" s="35" t="s">
         <v>258</v>
       </c>
@@ -17643,7 +17644,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="453" spans="1:17">
+    <row r="453" spans="1:17" hidden="1">
       <c r="A453" s="35" t="s">
         <v>258</v>
       </c>
@@ -17672,7 +17673,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="454" spans="1:17">
+    <row r="454" spans="1:17" hidden="1">
       <c r="A454" s="35" t="s">
         <v>258</v>
       </c>
@@ -17701,7 +17702,7 @@
         <v>0.70000000000000007</v>
       </c>
     </row>
-    <row r="455" spans="1:17">
+    <row r="455" spans="1:17" hidden="1">
       <c r="A455" s="35" t="s">
         <v>258</v>
       </c>
@@ -17730,7 +17731,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="456" spans="1:17">
+    <row r="456" spans="1:17" hidden="1">
       <c r="A456" s="35" t="s">
         <v>258</v>
       </c>
@@ -17759,7 +17760,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="457" spans="1:17">
+    <row r="457" spans="1:17" hidden="1">
       <c r="A457" s="35" t="s">
         <v>258</v>
       </c>
@@ -17788,7 +17789,7 @@
         <v>0.70000000000000007</v>
       </c>
     </row>
-    <row r="458" spans="1:17">
+    <row r="458" spans="1:17" hidden="1">
       <c r="A458" s="35" t="s">
         <v>258</v>
       </c>
@@ -17817,7 +17818,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="459" spans="1:17">
+    <row r="459" spans="1:17" hidden="1">
       <c r="A459" s="35" t="s">
         <v>258</v>
       </c>
@@ -17846,7 +17847,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="460" spans="1:17">
+    <row r="460" spans="1:17" hidden="1">
       <c r="A460" s="35" t="s">
         <v>258</v>
       </c>
@@ -17875,7 +17876,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="461" spans="1:17">
+    <row r="461" spans="1:17" hidden="1">
       <c r="A461" s="35" t="s">
         <v>258</v>
       </c>
@@ -17905,7 +17906,7 @@
       </c>
       <c r="N461" s="37"/>
     </row>
-    <row r="462" spans="1:17">
+    <row r="462" spans="1:17" hidden="1">
       <c r="A462" s="35" t="s">
         <v>258</v>
       </c>
@@ -17935,7 +17936,7 @@
       </c>
       <c r="N462" s="37"/>
     </row>
-    <row r="463" spans="1:17">
+    <row r="463" spans="1:17" hidden="1">
       <c r="A463" s="35" t="s">
         <v>258</v>
       </c>
@@ -17965,7 +17966,7 @@
       </c>
       <c r="N463" s="37"/>
     </row>
-    <row r="464" spans="1:17">
+    <row r="464" spans="1:17" hidden="1">
       <c r="A464" s="35" t="s">
         <v>258</v>
       </c>
@@ -17997,7 +17998,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="465" spans="1:17">
+    <row r="465" spans="1:17" hidden="1">
       <c r="A465" s="35" t="s">
         <v>258</v>
       </c>
@@ -18029,7 +18030,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="466" spans="1:17">
+    <row r="466" spans="1:17" hidden="1">
       <c r="A466" s="35" t="s">
         <v>258</v>
       </c>
@@ -18065,7 +18066,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="467" spans="1:17">
+    <row r="467" spans="1:17" hidden="1">
       <c r="A467" s="35" t="s">
         <v>258</v>
       </c>
@@ -18101,7 +18102,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="468" spans="1:17">
+    <row r="468" spans="1:17" hidden="1">
       <c r="A468" s="35" t="s">
         <v>258</v>
       </c>
@@ -18139,6 +18140,11 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:Q468" xr:uid="{808F20BE-FFFF-4F89-9260-79AFD92585E9}">
+    <filterColumn colId="6">
+      <filters>
+        <filter val="Hydrozoa"/>
+      </filters>
+    </filterColumn>
     <sortState ref="A2:Q468">
       <sortCondition ref="G1:G468"/>
     </sortState>
